--- a/TEST/Test_Labeled.xlsx
+++ b/TEST/Test_Labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_test\IndependentStudy_ICANLAB\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59DC465-6D62-4295-8991-C1A777E58DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA7B30-0B1C-45A4-A34C-E82929CA440E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>RSSI</t>
   </si>
   <si>
-    <t>RSSI</t>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,2419 +413,3322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172:C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-1.011836921968793</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>-0.950474687876806</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>-0.89613137247364705</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>-0.84766756016777833</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>-0.8041778490726017</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6.3333333333333321</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>-0.76493369642476239</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6.6666666666666652</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>-0.729342237787165</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>-0.69691610255344472</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7.3333333333333313</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>-0.66725094555387443</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7.6666666666666643</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>-0.64000848727158655</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7.9999999999999973</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>-0.61490354868597308</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>-0.59169402439290764</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8.6666666666666643</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>-0.57017304531467516</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>-0.55016279269820245</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>-0.53150957122750242</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>-0.51407985203742612</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>-0.49775706993136742</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>-0.4824390122431339</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>-0.4680356756336721</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>-0.45446749581954288</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11.333333333333339</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>-0.44166387665411833</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>-0.42956196111944678</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>-0.41810559904833161</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12.333333333333339</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>-0.40724447578978129</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>-0.39693337328282041</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13.000000000000011</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>-0.38713154064299721</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13.333333333333339</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>-0.37780215578176518</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>-0.36891186305886953</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14.000000000000011</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>-0.36043037472828132</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14.333333333333339</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>-0.35233012613855408</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>-0.34458597641491912</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15.000000000000011</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>-0.33717494777457091</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15.333333333333339</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>-0.33007599777928931</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>-0.32326981977064412</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16.000000000000011</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>-0.31673866750094248</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16.333333333333339</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>-0.31046620060521951</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16.666666666666671</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>-0.30443734808073941</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17.000000000000011</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>-0.29863818737223369</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17.333333333333339</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>-0.29305583702068821</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>17.666666666666671</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>-0.28767836113303252</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>-0.28249468418162849</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18.333333333333339</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>-0.27749451485310322</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18.666666666666671</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>-0.27266827784509928</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>-0.26800705265937103</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19.333333333333329</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>-0.26350251856813139</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19.666666666666661</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>-0.25914690503914528</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>-0.25493294699828078</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20.333333333333329</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>-0.25085384438733632</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20.666666666666661</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>-0.24690322554401689</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20.999999999999989</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>-0.24307511398876611</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21.333333333333329</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>-0.2393638982543678</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21.666666666666661</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>-0.2357643044383764</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21.999999999999989</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>-0.2322713711952957</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22.333333333333321</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>-0.2288804269197868</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22.66666666666665</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>-0.2255870688997561</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22.999999999999989</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>-0.22238714424393891</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23.333333333333321</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>-0.21927673241017939</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23.66666666666665</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>-0.2162521291796651</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23.999999999999979</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>-0.2133098319397817</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24.333333333333311</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>-0.21044652615212561</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24.66666666666665</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>-0.20765907289619179</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24.999999999999979</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>-0.20494449739003071</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25.333333333333311</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>-0.20229997839975061</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25.666666666666639</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>-0.19972283845859809</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25.999999999999979</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>-0.19721053482422229</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26.333333333333311</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>-0.1947606511100872</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26.666666666666639</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>-0.19237088953292411</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26.999999999999972</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>-0.1900390637240861</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27.3333333333333</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>-0.18776309205766489</v>
       </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27.666666666666639</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>-0.18554099145204361</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27.999999999999972</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>-0.18337087160682591</v>
       </c>
       <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28.3333333333333</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>-0.18125092963933301</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28.666666666666629</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>-0.17917944508894831</v>
       </c>
       <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28.999999999999961</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>-0.17715477526027709</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>-0.17517535087827699</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29.666666666666629</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>-0.17323967203184051</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29.999999999999961</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>-0.17134630438306431</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30.33333333333329</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>-0.1694938756225213</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30.666666666666629</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>-0.16768107215206379</v>
       </c>
       <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30.999999999999961</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>-0.16590663597827421</v>
       </c>
       <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+        <v>31.33333333333329</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>-0.16416936180101521</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+        <v>31.666666666666622</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>-0.1624680942830139</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+        <v>31.99999999999995</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>-0.16080172548763019</v>
       </c>
       <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32.333333333333293</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>-0.15916919247248981</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32.666666666666622</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>-0.15756947502845259</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32.999999999999957</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>-0.15600159355339829</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33.333333333333293</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>-0.15446460705182119</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33.666666666666629</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>-0.15295761125150881</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33.999999999999957</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>-0.1514797368292449</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34.3333333333333</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>-0.15003014773880349</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34.666666666666643</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>-0.14860803963344441</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34.999999999999972</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>-0.14721263837785159</v>
       </c>
       <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35.333333333333307</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>-0.14584319864282241</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35.666666666666643</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>-0.14449900257763201</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35.999999999999979</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>-0.14317935855541461</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36.333333333333307</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>-0.1418835999864001</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36.66666666666665</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>-0.14061108419522839</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36.999999999999993</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>-0.13936119135789229</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37.333333333333321</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>-0.1381333234952109</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37.666666666666657</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>-0.1369269035187273</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37.999999999999993</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>-0.13574137432637201</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+        <v>38.333333333333329</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>-0.13457619794468201</v>
       </c>
       <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+        <v>38.666666666666657</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>-0.13343085471468899</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>-0.13230484251923261</v>
       </c>
       <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+        <v>39.333333333333343</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>-0.1311976760488989</v>
       </c>
       <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>39.666666666666671</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>-0.13010888610459401</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>-0.12903801893456551</v>
       </c>
       <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40.333333333333343</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>-0.1279846356038519</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40.666666666666679</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>-0.126948311394429</v>
       </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41.000000000000007</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>-0.12592863523414621</v>
       </c>
       <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41.33333333333335</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>-0.12492520915319009</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41.666666666666693</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>-0.123937647766013</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42.000000000000021</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>-0.1229655777780181</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42.333333333333357</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>-0.1220086375148384</v>
       </c>
       <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42.666666666666693</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>-0.12106647647392781</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43.000000000000028</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>-0.12013875489627419</v>
       </c>
       <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43.333333333333357</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>-0.1192251433580935</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43.6666666666667</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>-0.1183253223806133</v>
       </c>
       <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44.000000000000043</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>-0.1174389820577488</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44.333333333333371</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>-0.11656582170017769</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44.666666666666707</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>-0.1157055494951322</v>
       </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45.000000000000043</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>-0.1148578821814397</v>
       </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45.333333333333378</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>-0.11402254473834721</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45.666666666666707</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>-0.1131992700881881</v>
       </c>
       <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46.00000000000005</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>-0.112387798811568</v>
       </c>
       <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46.333333333333393</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>-0.111587878874829</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46.666666666666721</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>-0.1107992653691099</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47.000000000000057</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>-0.1100217202604057</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47.333333333333393</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>-0.10925501214977371</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47.666666666666728</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>-0.1084989160440841</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48.000000000000057</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>-0.10775321313558089</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48.3333333333334</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>-0.107017690590979</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48.666666666666742</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>-0.1062921413488027</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49.000000000000071</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>-0.1055763639251381</v>
       </c>
       <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49.333333333333407</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>-0.1048701622270016</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49.666666666666742</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>-0.1041733453733258</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+        <v>50.000000000000078</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>-0.1034857275228802</v>
       </c>
       <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+        <v>50.333333333333407</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>-0.1028071277090135</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+        <v>50.66666666666675</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>-0.10213736968100311</v>
       </c>
       <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+        <v>51.000000000000092</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>-0.1014762817512178</v>
       </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+        <v>51.333333333333421</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>-0.1008236966485327</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+        <v>51.666666666666757</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>-0.1001794513772722</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52.000000000000092</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>-9.9543387081325818E-2</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52.333333333333428</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>-9.8915348913635626E-2</v>
       </c>
       <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52.666666666666757</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>-9.8295185910600935E-2</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53.000000000000099</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>-9.7682750870887958E-2</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53.333333333333442</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>-9.7077900239199266E-2</v>
       </c>
       <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53.666666666666771</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>-9.6480493993894356E-2</v>
       </c>
       <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54.000000000000107</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>-9.5890395539015572E-2</v>
       </c>
       <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54.333333333333442</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>-9.530747160012254E-2</v>
       </c>
       <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54.666666666666778</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>-9.4731592123977748E-2</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55.000000000000107</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>-9.4162630181770623E-2</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55.333333333333449</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>-9.3600461875894325E-2</v>
       </c>
       <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55.666666666666792</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>-9.3044966249962613E-2</v>
       </c>
       <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56.000000000000121</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>-9.2496025202081E-2</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56.333333333333456</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>-9.1953523401059556E-2</v>
       </c>
       <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56.666666666666792</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>-9.1417348205766302E-2</v>
       </c>
       <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57.000000000000128</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>-9.0887389586995937E-2</v>
       </c>
       <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57.333333333333456</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>-9.0363540052337044E-2</v>
       </c>
       <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57.666666666666799</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>-8.9845694573369883E-2</v>
       </c>
       <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58.000000000000142</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>-8.9333750515578458E-2</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58.333333333333471</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>-8.8827607570422629E-2</v>
       </c>
       <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58.666666666666814</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>-8.8327167689854491E-2</v>
       </c>
       <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+        <v>59.000000000000142</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>-8.7832335023065866E-2</v>
       </c>
       <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+        <v>59.333333333333478</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>-8.7343015855211092E-2</v>
       </c>
       <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+        <v>59.666666666666814</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>-8.6859118548204606E-2</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60.000000000000149</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>-8.6380553483650147E-2</v>
       </c>
       <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60.333333333333478</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>-8.5907233007290529E-2</v>
       </c>
       <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60.666666666666821</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>-8.5439071375773779E-2</v>
       </c>
       <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61.000000000000163</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>-8.4975984704527718E-2</v>
       </c>
       <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61.333333333333492</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>-8.4517890917979344E-2</v>
       </c>
       <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61.666666666666828</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>-8.4064709700840012E-2</v>
       </c>
       <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62.000000000000163</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>-8.3616362451223836E-2</v>
       </c>
       <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62.333333333333499</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>-8.3172772235272419E-2</v>
       </c>
       <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62.666666666666828</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>-8.2733863743015945E-2</v>
       </c>
       <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+        <v>63.000000000000171</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>-8.2299563245840091E-2</v>
       </c>
       <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+        <v>63.333333333333513</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>-8.1869798555175066E-2</v>
       </c>
       <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+        <v>63.666666666666842</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>-8.1444498982492064E-2</v>
       </c>
       <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+        <v>64.000000000000171</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>-8.1023595300521833E-2</v>
       </c>
       <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+        <v>64.333333333333499</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>-8.0607019705738026E-2</v>
       </c>
       <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+        <v>64.666666666666828</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>-8.0194705781877929E-2</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+        <v>65.000000000000156</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>-7.978658846472797E-2</v>
       </c>
       <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+        <v>65.333333333333485</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>-7.938260400776187E-2</v>
       </c>
       <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+        <v>65.666666666666814</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>-7.8982689949128826E-2</v>
       </c>
       <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66.000000000000142</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>-7.8586785079323818E-2</v>
       </c>
       <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66.333333333333471</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>-7.8194829409923727E-2</v>
       </c>
       <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+        <v>66.666666666666799</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>-7.7806764143460327E-2</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67.000000000000128</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>-7.7422531643875914E-2</v>
       </c>
       <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67.333333333333456</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>-7.7042075407959487E-2</v>
       </c>
       <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67.666666666666785</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>-7.6665340037777696E-2</v>
       </c>
       <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68.000000000000114</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>-7.6292271213702634E-2</v>
       </c>
       <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68.333333333333442</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>-7.5922815668292287E-2</v>
       </c>
       <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68.666666666666771</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>-7.5556921160966795E-2</v>
       </c>
       <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69.000000000000099</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>-7.5194536453352612E-2</v>
       </c>
       <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69.333333333333428</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>-7.4835611285436698E-2</v>
       </c>
       <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69.666666666666757</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>-7.4480096352218084E-2</v>
       </c>
       <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+        <v>70.000000000000085</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>-7.4127943281226294E-2</v>
       </c>
       <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+        <v>70.333333333333414</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>-7.3779104610494528E-2</v>
       </c>
       <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+        <v>70.666666666666742</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>-7.3433533767357062E-2</v>
       </c>
       <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+        <v>71.000000000000071</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>-7.3091185047559293E-2</v>
       </c>
       <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+        <v>71.3333333333334</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>-7.2752013595248854E-2</v>
       </c>
       <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+        <v>71.666666666666728</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>-7.2415975383307796E-2</v>
       </c>
       <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+        <v>72.000000000000057</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>-7.2083027194324245E-2</v>
       </c>
       <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+        <v>72.333333333333385</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>-7.1753126602033035E-2</v>
       </c>
       <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+        <v>72.666666666666714</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>-7.1426231953381603E-2</v>
       </c>
       <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73.000000000000043</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>-7.1102302350837476E-2</v>
       </c>
       <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73.333333333333371</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>-7.0781297635562623E-2</v>
       </c>
       <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73.6666666666667</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>-7.0463178370545165E-2</v>
       </c>
       <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74.000000000000028</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>-7.0147905824683221E-2</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74.333333333333357</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>-6.9835441956911382E-2</v>
       </c>
       <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74.666666666666686</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>-6.9525749400980885E-2</v>
       </c>
       <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+        <v>75.000000000000014</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>-6.921879145055243E-2</v>
       </c>
       <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+        <v>75.333333333333343</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>-6.8914532044644261E-2</v>
       </c>
       <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+        <v>75.666666666666671</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>-6.8612935753577631E-2</v>
       </c>
       <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>-6.8313967765149641E-2</v>
       </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>-6.8017593871303461E-2</v>
       </c>
       <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76.666666666666657</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>-6.772378045506855E-2</v>
       </c>
       <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76.999999999999986</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>-6.743249447779931E-2</v>
       </c>
       <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+        <v>77.333333333333314</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>-6.7143703466882698E-2</v>
       </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+        <v>77.666666666666643</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>-6.6857375503516892E-2</v>
       </c>
       <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+        <v>77.999999999999972</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>-6.657347921115786E-2</v>
       </c>
       <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78.3333333333333</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>-6.62919837439091E-2</v>
       </c>
       <c r="B223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78.666666666666629</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>-6.601285877532348E-2</v>
       </c>
       <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78.999999999999957</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>-6.5736074487688256E-2</v>
       </c>
       <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+        <v>79.333333333333286</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>-6.5461601561224825E-2</v>
       </c>
       <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+        <v>79.666666666666615</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>-6.5189411163757427E-2</v>
       </c>
       <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+        <v>79.999999999999943</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>-6.4919474940822397E-2</v>
       </c>
       <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80.333333333333272</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>-6.4651765005493189E-2</v>
       </c>
       <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80.6666666666666</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>-6.4386253929058057E-2</v>
       </c>
       <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80.999999999999929</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>-6.4122914731498781E-2</v>
       </c>
       <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81.333333333333258</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>-6.38617208723673E-2</v>
       </c>
       <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81.666666666666586</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>-6.3602646241946559E-2</v>
       </c>
       <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81.999999999999915</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>-6.33456651524682E-2</v>
       </c>
       <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82.333333333333243</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>-6.3090752329671318E-2</v>
       </c>
       <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82.666666666666572</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>-6.2837882904474895E-2</v>
       </c>
       <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>-6.2587032404920251E-2</v>
       </c>
       <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83.333333333333229</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>-6.2338176748269802E-2</v>
       </c>
       <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83.666666666666558</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>-6.2091292233276363E-2</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83.999999999999886</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>-6.1846355532736652E-2</v>
       </c>
       <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84.333333333333215</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>-6.1603343686016387E-2</v>
       </c>
       <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84.666666666666544</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>-6.1362234091987489E-2</v>
       </c>
       <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84.999999999999872</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>-6.1123004501965283E-2</v>
       </c>
       <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85.333333333333201</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>-6.0885633012873093E-2</v>
       </c>
       <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85.666666666666529</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>-6.0650098060591517E-2</v>
       </c>
       <c r="B245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85.999999999999858</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>-6.0416378413336247E-2</v>
       </c>
       <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86.333333333333186</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>-6.0184453165405223E-2</v>
       </c>
       <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86.666666666666515</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>-5.995430173086902E-2</v>
       </c>
       <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86.999999999999844</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>-5.9725903837446033E-2</v>
       </c>
       <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+        <v>87.333333333333172</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>-5.9499239520633303E-2</v>
       </c>
       <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+        <v>87.666666666666501</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>-5.9274289117865919E-2</v>
       </c>
       <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+        <v>87.999999999999829</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>-5.9051033262761621E-2</v>
       </c>
       <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88.333333333333158</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>-5.882945287964958E-2</v>
       </c>
       <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88.666666666666487</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>-5.8609529178113462E-2</v>
       </c>
       <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88.999999999999815</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>-5.8391243647633928E-2</v>
       </c>
       <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+        <v>89.333333333333144</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>-5.8174578052529569E-2</v>
       </c>
       <c r="B256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+        <v>89.666666666666472</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>-5.7959514426585201E-2</v>
       </c>
       <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+        <v>89.999999999999801</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>-5.7746035068532819E-2</v>
       </c>
       <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90.33333333333313</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>-5.7534122536722521E-2</v>
       </c>
       <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90.666666666666458</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>-5.7323759644717143E-2</v>
       </c>
       <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90.999999999999787</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>-5.7114929456474783E-2</v>
       </c>
       <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+        <v>91.333333333333115</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>-5.6907615281886592E-2</v>
       </c>
       <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+        <v>91.666666666666444</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>-5.6701800672215093E-2</v>
       </c>
       <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+        <v>91.999999999999773</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>-5.6497469415973001E-2</v>
       </c>
       <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92.333333333333101</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>-5.6294605534304758E-2</v>
       </c>
       <c r="B265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92.66666666666643</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>-5.6093193277234832E-2</v>
       </c>
       <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92.999999999999758</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>-5.5893217119276528E-2</v>
       </c>
       <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+        <v>93.333333333333087</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>-5.5694661755552488E-2</v>
       </c>
       <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+        <v>93.666666666666416</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>-5.5497512097943513E-2</v>
       </c>
       <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+        <v>93.999999999999744</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>-5.5301753271180587E-2</v>
       </c>
       <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94.333333333333073</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>-5.5107370609164263E-2</v>
       </c>
       <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94.666666666666401</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>-5.4914349651227212E-2</v>
       </c>
       <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94.99999999999973</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>-5.4722676138680981E-2</v>
       </c>
       <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95.333333333333059</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>-5.4532336011106963E-2</v>
       </c>
       <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95.666666666666387</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>-5.4343315403144743E-2</v>
       </c>
       <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95.999999999999716</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>-5.4155600640939383E-2</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96.333333333333044</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>-5.3969178238929771E-2</v>
       </c>
       <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96.666666666666373</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>-5.3784034896636967E-2</v>
       </c>
       <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96.999999999999702</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>-5.3600157495452549E-2</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97.33333333333303</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>-5.3417533095526437E-2</v>
       </c>
       <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97.666666666666359</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>-5.3236148932811027E-2</v>
       </c>
       <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97.999999999999687</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>-5.3055992416005893E-2</v>
       </c>
       <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98.333333333333016</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>-5.2877051123672907E-2</v>
       </c>
       <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98.666666666666345</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>-5.2699312801436797E-2</v>
       </c>
       <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98.999999999999673</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>-5.2522765359100283E-2</v>
       </c>
       <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+        <v>99.333333333333002</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>-5.2347396867901352E-2</v>
       </c>
       <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+        <v>99.66666666666633</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>-5.2173195557941199E-2</v>
       </c>
       <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+        <v>99.999999999999659</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>-5.20001498153988E-2</v>
       </c>
       <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100.333333333333</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>-5.1828248180058267E-2</v>
       </c>
       <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100.6666666666663</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>-5.1657479342807733E-2</v>
       </c>
       <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100.9999999999996</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>-5.1487832142953487E-2</v>
       </c>
       <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+        <v>101.333333333333</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>-5.1319295566059957E-2</v>
       </c>
       <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+        <v>101.6666666666663</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>-5.1151858741405931E-2</v>
       </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+        <v>101.9999999999996</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>-5.0985510939597127E-2</v>
       </c>
       <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102.333333333333</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>-5.0820241570491483E-2</v>
       </c>
       <c r="B295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102.6666666666663</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>-5.0656040180726343E-2</v>
       </c>
       <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102.9999999999996</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>-5.0492896451572733E-2</v>
       </c>
       <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+        <v>103.3333333333329</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>-5.0330800196945802E-2</v>
       </c>
       <c r="B298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+        <v>103.6666666666663</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>-5.0169741361017373E-2</v>
       </c>
       <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+        <v>103.9999999999996</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>-5.0009710016269082E-2</v>
       </c>
       <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+        <v>104.3333333333329</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>-4.9850696361517073E-2</v>
       </c>
       <c r="B301">
+        <v>104.6666666666663</v>
+      </c>
+      <c r="C301">
         <v>1</v>
       </c>
     </row>
